--- a/test_cases.xlsx
+++ b/test_cases.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="99">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -300,9 +300,6 @@
     </r>
   </si>
   <si>
-    <t>Success message</t>
-  </si>
-  <si>
     <t>c4sg_SignUp_InvalidEmail_TC006</t>
   </si>
   <si>
@@ -431,6 +428,236 @@
         <scheme val="minor"/>
       </rPr>
       <t>' @. Eg: testgmail.com. 'Invalid email address ' error message is displayed</t>
+    </r>
+  </si>
+  <si>
+    <t>http://dev.code4socialgood.org/</t>
+  </si>
+  <si>
+    <t>Featured Items on Home Page</t>
+  </si>
+  <si>
+    <t>Sign Up - New User Registration</t>
+  </si>
+  <si>
+    <t>Forgot Password</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Check Forgot Password functionality - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>With empty email address</t>
+    </r>
+  </si>
+  <si>
+    <t>Click on Forgot Password</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Email is required to do a password reset' </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>error message is displayed</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Check Forgot Password functionality - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>With invalid email address</t>
+    </r>
+  </si>
+  <si>
+    <t>Enter an invalid email address</t>
+  </si>
+  <si>
+    <t>testgmail.com or test@gmai.co</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">A password reset link was sent to your email </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>message is displayed</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Check Forgot Password functionality - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>With valid email address</t>
+    </r>
+  </si>
+  <si>
+    <t>Enter an valid email address</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Check Forgot Password functionality - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>With unregistered email address</t>
+    </r>
+  </si>
+  <si>
+    <t>Enter an unregistered email address</t>
+  </si>
+  <si>
+    <t>tester@gmail.com</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">User unregistered' </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>message should be displayed</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>An invalid email address</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> error should be thrown</t>
+    </r>
+  </si>
+  <si>
+    <t>Redirected to Home Page, an email is sent to the registered email address for email address verification</t>
+  </si>
+  <si>
+    <t>Email address verification post Sign Up</t>
+  </si>
+  <si>
+    <t>c4sg_verifyEmailAdress_TC008</t>
+  </si>
+  <si>
+    <t>C4SG_ForgotPW_emptyEmail_TC009</t>
+  </si>
+  <si>
+    <t>C4SG_ForgotPW_invalidEmail_TC10</t>
+  </si>
+  <si>
+    <t>C4SG_ForgotPW_validEmail_TC011</t>
+  </si>
+  <si>
+    <t>C4SG_ForgotPW_UnregisteredEmail_TC012</t>
+  </si>
+  <si>
+    <t>Check the email address verification functionality post sign up</t>
+  </si>
+  <si>
+    <t>Open the email received from c4sg post successful sign up</t>
+  </si>
+  <si>
+    <t>Click on the URL next to 'Verify Link' in the email</t>
+  </si>
+  <si>
+    <t>Registered email address and a 'Verify Link' URL are displayed in email</t>
+  </si>
+  <si>
+    <r>
+      <t>Redirected to web page with the message</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 'Your email was verified. You can continue using the application.'</t>
     </r>
   </si>
 </sst>
@@ -492,7 +719,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -523,6 +750,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -537,20 +770,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -558,23 +779,72 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -863,10 +1133,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I42"/>
+  <dimension ref="A1:I60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="F54" sqref="F54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -876,603 +1146,878 @@
     <col min="3" max="3" width="35.5703125" style="5" customWidth="1"/>
     <col min="4" max="4" width="31" style="5" customWidth="1"/>
     <col min="5" max="5" width="31.28515625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="16.42578125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="20.42578125" style="5" customWidth="1"/>
     <col min="7" max="7" width="9.140625" style="5"/>
     <col min="8" max="8" width="16.5703125" style="5" customWidth="1"/>
     <col min="9" max="9" width="20" style="5" customWidth="1"/>
     <col min="10" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="I1" s="16" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="20" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="5" t="s">
+      <c r="D3" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G3" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="C4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="H2" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="C3" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="12" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C4" s="5" t="s">
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="12" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="C5" s="5" t="s">
+      <c r="G5" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="C6" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E6" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F6" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="12" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="C6" s="5" t="s">
+      <c r="G6" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="C7" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D7" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E7" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F7" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="12" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G7" s="12"/>
-    </row>
-    <row r="8" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
+      <c r="G7" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" s="7" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B9" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C9" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="5" t="s">
+      <c r="D9" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E9" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F9" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="12" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="C9" s="5" t="s">
+      <c r="G9" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="C10" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E10" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F10" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="G9" s="12" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C10" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G10" s="12" t="s">
-        <v>61</v>
+      <c r="G10" s="6" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C11" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C12" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D12" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="G11" s="12" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="120" x14ac:dyDescent="0.25">
-      <c r="C12" s="5" t="s">
+      <c r="G12" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="C13" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E12" s="8" t="s">
+      <c r="E13" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="F12" s="8" t="s">
+      <c r="F13" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="G12" s="12" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C13" s="5" t="s">
+      <c r="G13" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="C14" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E14" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G15" s="6"/>
+    </row>
+    <row r="16" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="C17" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="C18" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="C19" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E20" s="9"/>
+      <c r="G20" s="6"/>
+    </row>
+    <row r="21" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="C22" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C23" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="C24" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="C25" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F25" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G26" s="6"/>
+    </row>
+    <row r="27" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="C28" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C29" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="C30" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="F30" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="C31" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E31" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="F31" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G32" s="6"/>
+    </row>
+    <row r="33" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="F13" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="G13" s="12" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G14" s="12"/>
-    </row>
-    <row r="15" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C15" s="5" t="s">
+      <c r="B33" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C33" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E15" s="5" t="s">
+      <c r="D33" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E33" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F15" s="5" t="s">
+      <c r="F33" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G15" s="12" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="C16" s="5" t="s">
+      <c r="G33" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="C34" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="E34" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F16" s="5" t="s">
+      <c r="F34" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="G16" s="12" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="120" x14ac:dyDescent="0.25">
-      <c r="C17" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E17" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="G17" s="12" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="C18" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="E18" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="F18" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="G18" s="12" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E19" s="8"/>
-      <c r="G19" s="12"/>
-    </row>
-    <row r="20" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A20" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G20" s="12" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="C21" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G21" s="12" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C22" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="G22" s="12" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="120" x14ac:dyDescent="0.25">
-      <c r="C23" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="F23" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="G23" s="12" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="C24" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="E24" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="F24" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="G24" s="12" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G25" s="12"/>
-    </row>
-    <row r="26" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A26" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F26" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G26" s="12" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="C27" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F27" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G27" s="12" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C28" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="G28" s="12" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="120" x14ac:dyDescent="0.25">
-      <c r="C29" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E29" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="F29" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="G29" s="12" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="C30" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="E30" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="F30" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="G30" s="12" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G31" s="12"/>
-    </row>
-    <row r="32" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A32" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E32" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F32" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G32" s="12" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="C33" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E33" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F33" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G33" s="12" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" ht="120" x14ac:dyDescent="0.25">
-      <c r="C34" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="G34" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="I34" s="5" t="s">
-        <v>69</v>
+      <c r="G34" s="6" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="C35" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="I35" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="C36" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E35" s="8" t="s">
+      <c r="E36" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="F35" s="8" t="s">
+      <c r="F36" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="G35" s="12" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="C36" s="5" t="s">
+      <c r="G36" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="C37" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="E36" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="F36" s="5" t="s">
+      <c r="E37" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G37" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="G36" s="13" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A38" s="9" t="s">
+    </row>
+    <row r="39" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A39" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B39" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="B38" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="C38" s="5" t="s">
+      <c r="C39" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D38" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E38" s="5" t="s">
+      <c r="D39" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E39" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F38" s="5" t="s">
+      <c r="F39" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G38" s="12" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="C39" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E39" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F39" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G39" s="12" t="s">
-        <v>61</v>
+      <c r="G39" s="6" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="C40" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="D40" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="G40" s="12" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G40" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="C41" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="G41" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="C42" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E41" s="8" t="s">
+      <c r="E42" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="F41" s="8" t="s">
+      <c r="F42" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="G41" s="12" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="C42" s="5" t="s">
+      <c r="G42" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="C43" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="E42" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="F42" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="G42" s="12" t="s">
-        <v>61</v>
+      <c r="E43" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="F43" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="G43" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A45" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="G45" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A46" s="26"/>
+      <c r="C46" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G46" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A48" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G48" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="C49" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F49" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G49" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="C50" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E50" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="F50" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="G50" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A52" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F52" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G52" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="C53" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F53" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G53" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="C54" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="F54" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="G54" s="12" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A55" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F55" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G55" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="C56" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E56" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F56" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G56" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="C57" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D57" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="E57" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="F57" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="G57" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A58" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F58" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G58" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" s="21" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A59" s="5"/>
+      <c r="B59" s="5"/>
+      <c r="C59" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D59" s="5"/>
+      <c r="E59" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F59" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G59" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="C60" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D60" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="E60" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="F60" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="G60" s="12" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A2:XFD2"/>
+    <mergeCell ref="A8:XFD8"/>
+    <mergeCell ref="A47:XFD47"/>
+    <mergeCell ref="A44:XFD44"/>
+  </mergeCells>
   <hyperlinks>
-    <hyperlink ref="D10" r:id="rId1"/>
-    <hyperlink ref="D28" r:id="rId2"/>
+    <hyperlink ref="D29" r:id="rId1"/>
+    <hyperlink ref="D60" r:id="rId2"/>
+    <hyperlink ref="D11" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -1493,47 +2038,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="3" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="5"/>
+      <c r="C3" s="1"/>
       <c r="D3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="2" t="s">
         <v>26</v>
       </c>
       <c r="D4" t="s">
@@ -1541,10 +2086,10 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D5" t="s">

--- a/test_cases.xlsx
+++ b/test_cases.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="196">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -659,6 +659,587 @@
       </rPr>
       <t xml:space="preserve"> 'Your email was verified. You can continue using the application.'</t>
     </r>
+  </si>
+  <si>
+    <t>User Login</t>
+  </si>
+  <si>
+    <t>Enter password</t>
+  </si>
+  <si>
+    <t>Click Login</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Wrong email or password</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> error message is displayed</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Wrong email or password </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>error message is displayed</t>
+    </r>
+  </si>
+  <si>
+    <t>C4SG_Login_Registered_emailUnVerified_TC014</t>
+  </si>
+  <si>
+    <r>
+      <t>Check User Login Functionality -</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Valid Registered data but email not verified post sign up</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Please verify your email before loggin in' </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>error message is displayed.</t>
+    </r>
+  </si>
+  <si>
+    <t>C4SG_Login_Registered_ValidData_First Login_TC015</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Check User Login Functionality - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Valid Registered data , first login attempt post registration</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Select the type of user you are signing up for</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>' pop up is displayed</t>
+    </r>
+  </si>
+  <si>
+    <t>C4SG_Login_Registered_ValidData_TC016</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Check User Login Functionality - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Valid Registered data</t>
+    </r>
+  </si>
+  <si>
+    <t>Signed In and redirected to Home Page</t>
+  </si>
+  <si>
+    <t>C4SG_Login_EmptyData_TC017</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Check User Login Functionality - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Empty email and pw</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Missing required parameter: username' </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>error message is displayed</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Missing required parameter: username'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> error message is displayed</t>
+    </r>
+  </si>
+  <si>
+    <t>Click Login without entering any username of password</t>
+  </si>
+  <si>
+    <t>C4SG_Login_EmptyPw_TC018</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Check User Login Functionality - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>valid/invalid email and empty pw</t>
+    </r>
+  </si>
+  <si>
+    <t>Enter emai address</t>
+  </si>
+  <si>
+    <t>Click Login without entering any password</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Missing required parameter: password' </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>error message is displayed</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Missing required parameter: password'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> error message is displayed</t>
+    </r>
+  </si>
+  <si>
+    <t>C4SG_Login_UnregisteredData_TC013</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Check User Login Functionality with </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>unregistered email address and pw</t>
+    </r>
+  </si>
+  <si>
+    <t>C4SG_Login_InvalidData_TC019</t>
+  </si>
+  <si>
+    <r>
+      <t>Check User Login Functionality with</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> invalid email address and/or pw</t>
+    </r>
+  </si>
+  <si>
+    <t>testgmail.com</t>
+  </si>
+  <si>
+    <r>
+      <t>Check User Login Functionality with</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> registered email address but invalid pw</t>
+    </r>
+  </si>
+  <si>
+    <t>tester</t>
+  </si>
+  <si>
+    <t>C4SG_Login_InvalidPw_TC020</t>
+  </si>
+  <si>
+    <t>C4SG_Login_withFaceBook_TC021</t>
+  </si>
+  <si>
+    <r>
+      <t>Check User Login Functionality -</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Login with Facebook</t>
+    </r>
+  </si>
+  <si>
+    <t>Click on Login with Facebook</t>
+  </si>
+  <si>
+    <t>Facebook Login page is displayed</t>
+  </si>
+  <si>
+    <t>Enter your valid facebook login credentials</t>
+  </si>
+  <si>
+    <t>Select the type of user you are signing up for' pop up is displayed upon first login. If not, successfully signed in and redirected to Home Page</t>
+  </si>
+  <si>
+    <r>
+      <t>Check User Login Functionality -</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Login with Google</t>
+    </r>
+  </si>
+  <si>
+    <t>Click on Login with Google</t>
+  </si>
+  <si>
+    <t>Google Login page is displayed</t>
+  </si>
+  <si>
+    <t>Goolge Login page is displayed</t>
+  </si>
+  <si>
+    <t>Enter your valid Google login credentials</t>
+  </si>
+  <si>
+    <t>C4SG_Login_withGoogle_TC022</t>
+  </si>
+  <si>
+    <t>C4SG_Logout_TC023</t>
+  </si>
+  <si>
+    <t>Check User Logout Functionality</t>
+  </si>
+  <si>
+    <t>Click on the little downward black arrow next to the link 'Organizations'</t>
+  </si>
+  <si>
+    <t>Dropdown with a list of links along with the 'Logout' link is displayed</t>
+  </si>
+  <si>
+    <t>Click on Logout</t>
+  </si>
+  <si>
+    <t>Signed out and redirected to Home Page</t>
+  </si>
+  <si>
+    <t>Check Header Links</t>
+  </si>
+  <si>
+    <t>Check if the header links are functioning as expected</t>
+  </si>
+  <si>
+    <t>Click on 'Projects' link</t>
+  </si>
+  <si>
+    <t>A green icon is displayed above the 'Projects' link. A list of projects is displayed on the page with a keyword search and sorting by Categories and Skills is displayed on the left.</t>
+  </si>
+  <si>
+    <t>Click on 'Volunteers' link</t>
+  </si>
+  <si>
+    <t>A green icon is displayed above the 'Volunteers' link. A list of volunteers is displayed on the page with a keyword search and sorting by Categories and Skills is displayed on the left.</t>
+  </si>
+  <si>
+    <t>Click on 'Organizations' link</t>
+  </si>
+  <si>
+    <t>A green icon is displayed above the 'Organizations' link. A list of Organizations is displayed on the page with a keyword search and sorting by Categories and Projects is displayed on the left.</t>
+  </si>
+  <si>
+    <t>Click on Code For Social Good logo</t>
+  </si>
+  <si>
+    <t>Home Page is displayed</t>
+  </si>
+  <si>
+    <t>C4SG_Header_links_TC024</t>
+  </si>
+  <si>
+    <t>C4SG_ProjectsPage_TC025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check the functioning of Projects page </t>
+  </si>
+  <si>
+    <t>Enter a keyword in the search box in the left navigation</t>
+  </si>
+  <si>
+    <t>technical</t>
+  </si>
+  <si>
+    <t>Results for the keyword 'technical' are displayed</t>
+  </si>
+  <si>
+    <t>Select a check box in the 'Categories' and/or 'Skills' filters in the left navigation</t>
+  </si>
+  <si>
+    <t>Category: Software development; Skills: HTML</t>
+  </si>
+  <si>
+    <t>Filtered results based on the filters selected are displayed</t>
+  </si>
+  <si>
+    <t>Click on a random breadcrumb link in the bottom of the results</t>
+  </si>
+  <si>
+    <t>Results on that page are displayed</t>
+  </si>
+  <si>
+    <t>Click on 'previous' link in the breadcrumb navigation</t>
+  </si>
+  <si>
+    <t>Previous page results are displayed</t>
+  </si>
+  <si>
+    <t>Click on 'next' link in the breadcrumb navigation</t>
+  </si>
+  <si>
+    <t>Next page results are displayed</t>
+  </si>
+  <si>
+    <t>Click on a random project link from the results</t>
+  </si>
+  <si>
+    <t>Projects</t>
+  </si>
+  <si>
+    <t>C4SG_Projects_ProjDetails_TC026</t>
+  </si>
+  <si>
+    <t>Check individual project details by clicking on a Project from Project results page</t>
+  </si>
+  <si>
+    <t>Click on a random project</t>
+  </si>
+  <si>
+    <t>Click on 'Bookmark'</t>
+  </si>
+  <si>
+    <t>You have bookmarked the project message appears</t>
+  </si>
+  <si>
+    <t>Click on 'Share'</t>
+  </si>
+  <si>
+    <t>Facebook, Twitter, Email, LinkedIn icons/handles are displayed</t>
+  </si>
+  <si>
+    <t>Click on 'Facebook' icon</t>
+  </si>
+  <si>
+    <t>Facebook post page/login page is displayed</t>
+  </si>
+  <si>
+    <t>Click on 'Twitter' icon</t>
+  </si>
+  <si>
+    <t>Twitter page is opened</t>
+  </si>
+  <si>
+    <t>Click on 'LinkedIn' icon</t>
+  </si>
+  <si>
+    <t>LinkedIn page is opened</t>
+  </si>
+  <si>
+    <t>Click on 'Email' icon</t>
+  </si>
+  <si>
+    <t>Gmail page is opened</t>
+  </si>
+  <si>
+    <t>Opens up to a blank page</t>
+  </si>
+  <si>
+    <t>Project details: Title of the project, Location, Posted date, Description, Apply button, Bookmark button, Share button are displayed. Related organizations and few other projects are displayed on the right side.</t>
+  </si>
+  <si>
+    <t>Project details: Title of the project, Location, Posted date, Description, Apply button, Bookmark button, Share button are displayed. Related organizations and a few other projects are displayed on the right side.</t>
+  </si>
+  <si>
+    <t>C4SG_Projects_Apply_TC026</t>
   </si>
 </sst>
 </file>
@@ -770,7 +1351,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -788,9 +1369,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -804,9 +1382,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
@@ -827,16 +1402,7 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
@@ -844,6 +1410,43 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1133,10 +1736,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I60"/>
+  <dimension ref="A1:I141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="F54" sqref="F54"/>
+    <sheetView tabSelected="1" topLeftCell="A135" workbookViewId="0">
+      <selection activeCell="A141" sqref="A141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1153,37 +1756,37 @@
     <col min="10" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:9" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="G1" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="H1" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="I1" s="14" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
+    <row r="2" spans="1:9" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="22" t="s">
         <v>70</v>
       </c>
     </row>
@@ -1266,8 +1869,8 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:9" s="7" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
+    <row r="8" spans="1:9" s="23" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="23" t="s">
         <v>71</v>
       </c>
     </row>
@@ -1312,7 +1915,7 @@
       <c r="C11" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D11" s="25" t="s">
+      <c r="D11" s="20" t="s">
         <v>49</v>
       </c>
       <c r="G11" s="6" t="s">
@@ -1334,10 +1937,10 @@
       <c r="C13" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="E13" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="F13" s="9" t="s">
+      <c r="F13" s="8" t="s">
         <v>52</v>
       </c>
       <c r="G13" s="6" t="s">
@@ -1402,10 +2005,10 @@
       <c r="C18" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E18" s="9" t="s">
+      <c r="E18" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="F18" s="9" t="s">
+      <c r="F18" s="8" t="s">
         <v>52</v>
       </c>
       <c r="G18" s="6" t="s">
@@ -1416,10 +2019,10 @@
       <c r="C19" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="E19" s="10" t="s">
+      <c r="E19" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="F19" s="9" t="s">
+      <c r="F19" s="8" t="s">
         <v>41</v>
       </c>
       <c r="G19" s="6" t="s">
@@ -1427,7 +2030,7 @@
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E20" s="9"/>
+      <c r="E20" s="8"/>
       <c r="G20" s="6"/>
     </row>
     <row r="21" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -1482,10 +2085,10 @@
       <c r="C24" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E24" s="9" t="s">
+      <c r="E24" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="F24" s="9" t="s">
+      <c r="F24" s="8" t="s">
         <v>52</v>
       </c>
       <c r="G24" s="6" t="s">
@@ -1496,10 +2099,10 @@
       <c r="C25" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="E25" s="10" t="s">
+      <c r="E25" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="F25" s="10" t="s">
+      <c r="F25" s="9" t="s">
         <v>54</v>
       </c>
       <c r="G25" s="6" t="s">
@@ -1550,7 +2153,7 @@
       <c r="C29" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="D29" s="8" t="s">
+      <c r="D29" s="7" t="s">
         <v>49</v>
       </c>
       <c r="G29" s="6" t="s">
@@ -1561,10 +2164,10 @@
       <c r="C30" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E30" s="9" t="s">
+      <c r="E30" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="F30" s="9" t="s">
+      <c r="F30" s="8" t="s">
         <v>52</v>
       </c>
       <c r="G30" s="6" t="s">
@@ -1575,10 +2178,10 @@
       <c r="C31" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="E31" s="11" t="s">
+      <c r="E31" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="F31" s="11" t="s">
+      <c r="F31" s="10" t="s">
         <v>53</v>
       </c>
       <c r="G31" s="6" t="s">
@@ -1643,10 +2246,10 @@
       <c r="C36" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E36" s="9" t="s">
+      <c r="E36" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="F36" s="9" t="s">
+      <c r="F36" s="8" t="s">
         <v>52</v>
       </c>
       <c r="G36" s="6" t="s">
@@ -1657,13 +2260,13 @@
       <c r="C37" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="E37" s="11" t="s">
+      <c r="E37" s="10" t="s">
         <v>65</v>
       </c>
       <c r="F37" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="G37" s="12" t="s">
+      <c r="G37" s="11" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1719,10 +2322,10 @@
       <c r="C42" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E42" s="9" t="s">
+      <c r="E42" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="F42" s="9" t="s">
+      <c r="F42" s="8" t="s">
         <v>52</v>
       </c>
       <c r="G42" s="6" t="s">
@@ -1733,18 +2336,18 @@
       <c r="C43" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="E43" s="11" t="s">
+      <c r="E43" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="F43" s="11" t="s">
+      <c r="F43" s="10" t="s">
         <v>66</v>
       </c>
       <c r="G43" s="6" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="44" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="7" t="s">
+    <row r="44" spans="1:9" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="23" t="s">
         <v>88</v>
       </c>
     </row>
@@ -1769,7 +2372,7 @@
       </c>
     </row>
     <row r="46" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A46" s="26"/>
+      <c r="A46" s="21"/>
       <c r="C46" s="5" t="s">
         <v>96</v>
       </c>
@@ -1783,8 +2386,8 @@
         <v>60</v>
       </c>
     </row>
-    <row r="47" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="7" t="s">
+    <row r="47" spans="1:9" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="23" t="s">
         <v>72</v>
       </c>
     </row>
@@ -1829,10 +2432,10 @@
       <c r="C50" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="E50" s="14" t="s">
+      <c r="E50" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="F50" s="14" t="s">
+      <c r="F50" s="12" t="s">
         <v>75</v>
       </c>
       <c r="G50" s="6" t="s">
@@ -1886,10 +2489,10 @@
       <c r="E54" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="F54" s="15" t="s">
+      <c r="F54" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="G54" s="12" t="s">
+      <c r="G54" s="11" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1934,13 +2537,13 @@
       <c r="C57" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="D57" s="22" t="s">
+      <c r="D57" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="E57" s="15" t="s">
+      <c r="E57" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="F57" s="15" t="s">
+      <c r="F57" s="13" t="s">
         <v>79</v>
       </c>
       <c r="G57" s="6" t="s">
@@ -1971,19 +2574,16 @@
       </c>
     </row>
     <row r="59" spans="1:7" s="21" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A59" s="5"/>
-      <c r="B59" s="5"/>
-      <c r="C59" s="5" t="s">
+      <c r="C59" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="D59" s="5"/>
-      <c r="E59" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F59" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G59" s="6" t="s">
+      <c r="E59" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="F59" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="G59" s="25" t="s">
         <v>60</v>
       </c>
     </row>
@@ -1991,33 +2591,1270 @@
       <c r="C60" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="D60" s="23" t="s">
+      <c r="D60" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="E60" s="24" t="s">
+      <c r="E60" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="F60" s="15" t="s">
+      <c r="F60" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="G60" s="12" t="s">
+      <c r="G60" s="11" t="s">
         <v>59</v>
       </c>
     </row>
+    <row r="61" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="23" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A62" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C62" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="D62" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="E62" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="F62" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="G62" s="29" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="C63" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="D63" s="32"/>
+      <c r="E63" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="F63" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="G63" s="33" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C64" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D64" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="G64" s="33" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C65" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G65" s="33" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="C66" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="E66" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="F66" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="G66" s="33" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A67" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C67" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="D67" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="E67" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="F67" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="G67" s="29" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="C68" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="D68" s="32"/>
+      <c r="E68" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="F68" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="G68" s="33" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C69" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="D69" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="E69" s="28"/>
+      <c r="F69" s="28"/>
+      <c r="G69" s="33" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C70" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="D70" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="E70" s="28"/>
+      <c r="F70" s="28"/>
+      <c r="G70" s="33" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="C71" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="D71" s="28"/>
+      <c r="E71" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="F71" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="G71" s="33" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A72" s="27" t="s">
+        <v>107</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C72" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="D72" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="E72" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="F72" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="G72" s="29" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="C73" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="D73" s="32"/>
+      <c r="E73" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="F73" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="G73" s="33" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C74" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="D74" s="26"/>
+      <c r="E74" s="28"/>
+      <c r="F74" s="28"/>
+      <c r="G74" s="33" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C75" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="D75" s="28"/>
+      <c r="E75" s="28"/>
+      <c r="F75" s="28"/>
+      <c r="G75" s="33" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="C76" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="D76" s="28"/>
+      <c r="E76" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="F76" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="G76" s="33" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A77" s="27" t="s">
+        <v>110</v>
+      </c>
+      <c r="B77" s="28" t="s">
+        <v>111</v>
+      </c>
+      <c r="C77" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="D77" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="E77" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="F77" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="G77" s="29" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A78" s="28"/>
+      <c r="B78" s="28"/>
+      <c r="C78" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="D78" s="32"/>
+      <c r="E78" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="F78" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="G78" s="33" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79" s="28"/>
+      <c r="B79" s="28"/>
+      <c r="C79" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="D79" s="26"/>
+      <c r="E79" s="28"/>
+      <c r="F79" s="28"/>
+      <c r="G79" s="33" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80" s="28"/>
+      <c r="B80" s="28"/>
+      <c r="C80" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="D80" s="28"/>
+      <c r="E80" s="28"/>
+      <c r="F80" s="28"/>
+      <c r="G80" s="33" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="C81" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="E81" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="F81" s="28" t="s">
+        <v>112</v>
+      </c>
+      <c r="G81" s="33" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A82" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="B82" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C82" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="D82" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="E82" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="F82" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="G82" s="29" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="C83" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="D83" s="32"/>
+      <c r="E83" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="F83" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="G83" s="33" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="C84" s="28" t="s">
+        <v>117</v>
+      </c>
+      <c r="D84" s="28"/>
+      <c r="E84" s="30" t="s">
+        <v>115</v>
+      </c>
+      <c r="F84" s="30" t="s">
+        <v>116</v>
+      </c>
+      <c r="G84" s="33" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A85" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="B85" s="28" t="s">
+        <v>119</v>
+      </c>
+      <c r="C85" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="D85" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="E85" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="F85" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="G85" s="29" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A86" s="28"/>
+      <c r="B86" s="28"/>
+      <c r="C86" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="D86" s="32"/>
+      <c r="E86" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="F86" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="G86" s="33" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C87" s="32" t="s">
+        <v>120</v>
+      </c>
+      <c r="D87" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="E87" s="32"/>
+      <c r="F87" s="32"/>
+      <c r="G87" s="33" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A88" s="28"/>
+      <c r="B88" s="28"/>
+      <c r="C88" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="D88" s="28"/>
+      <c r="E88" s="30" t="s">
+        <v>122</v>
+      </c>
+      <c r="F88" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="G88" s="33" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A89" s="27" t="s">
+        <v>126</v>
+      </c>
+      <c r="B89" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="C89" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="D89" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="E89" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="F89" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="G89" s="29" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B90" s="28"/>
+      <c r="C90" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="D90" s="32"/>
+      <c r="E90" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="F90" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="G90" s="33" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B91" s="28"/>
+      <c r="C91" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="D91" s="26" t="s">
+        <v>128</v>
+      </c>
+      <c r="E91" s="28"/>
+      <c r="F91" s="28"/>
+      <c r="G91" s="33" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B92" s="28"/>
+      <c r="C92" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="D92" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="E92" s="28"/>
+      <c r="F92" s="28"/>
+      <c r="G92" s="33" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="B93" s="28"/>
+      <c r="C93" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="D93" s="28"/>
+      <c r="E93" s="28" t="s">
+        <v>102</v>
+      </c>
+      <c r="F93" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="G93" s="33" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A94" s="27" t="s">
+        <v>131</v>
+      </c>
+      <c r="B94" s="28" t="s">
+        <v>129</v>
+      </c>
+      <c r="C94" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="D94" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="E94" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="F94" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="G94" s="29" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A95" s="28"/>
+      <c r="B95" s="28"/>
+      <c r="C95" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="D95" s="32"/>
+      <c r="E95" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="F95" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="G95" s="33" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A96" s="28"/>
+      <c r="B96" s="28"/>
+      <c r="C96" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="D96" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="E96" s="28"/>
+      <c r="F96" s="28"/>
+      <c r="G96" s="33" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A97" s="28"/>
+      <c r="B97" s="28"/>
+      <c r="C97" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="D97" s="28" t="s">
+        <v>130</v>
+      </c>
+      <c r="E97" s="28"/>
+      <c r="F97" s="28"/>
+      <c r="G97" s="33" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A98" s="28"/>
+      <c r="B98" s="28"/>
+      <c r="C98" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="D98" s="28"/>
+      <c r="E98" s="28" t="s">
+        <v>102</v>
+      </c>
+      <c r="F98" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="G98" s="33" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A99" s="27" t="s">
+        <v>132</v>
+      </c>
+      <c r="B99" s="28" t="s">
+        <v>133</v>
+      </c>
+      <c r="C99" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="D99" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="E99" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="F99" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="G99" s="29" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A100" s="28"/>
+      <c r="B100" s="28"/>
+      <c r="C100" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="D100" s="32"/>
+      <c r="E100" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="F100" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="G100" s="33" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="C101" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="E101" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="F101" s="28" t="s">
+        <v>135</v>
+      </c>
+      <c r="G101" s="33" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="C102" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="G102" s="33" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+      <c r="C103" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="E103" s="30" t="s">
+        <v>137</v>
+      </c>
+      <c r="F103" s="30" t="s">
+        <v>137</v>
+      </c>
+      <c r="G103" s="33" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A104" s="27" t="s">
+        <v>143</v>
+      </c>
+      <c r="B104" s="28" t="s">
+        <v>138</v>
+      </c>
+      <c r="C104" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="D104" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="E104" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="F104" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="G104" s="29" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A105" s="28"/>
+      <c r="B105" s="28"/>
+      <c r="C105" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="D105" s="32"/>
+      <c r="E105" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="F105" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="G105" s="33" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A106" s="28"/>
+      <c r="B106" s="28"/>
+      <c r="C106" s="28" t="s">
+        <v>139</v>
+      </c>
+      <c r="D106" s="28"/>
+      <c r="E106" s="28" t="s">
+        <v>140</v>
+      </c>
+      <c r="F106" s="28" t="s">
+        <v>141</v>
+      </c>
+      <c r="G106" s="33" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A107" s="28"/>
+      <c r="B107" s="28"/>
+      <c r="C107" s="28" t="s">
+        <v>142</v>
+      </c>
+      <c r="D107" s="28"/>
+      <c r="E107" s="28"/>
+      <c r="F107" s="28"/>
+      <c r="G107" s="33" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+      <c r="A108" s="28"/>
+      <c r="B108" s="28"/>
+      <c r="C108" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="D108" s="28"/>
+      <c r="E108" s="30" t="s">
+        <v>137</v>
+      </c>
+      <c r="F108" s="30" t="s">
+        <v>137</v>
+      </c>
+      <c r="G108" s="33" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A109" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="B109" s="28" t="s">
+        <v>145</v>
+      </c>
+      <c r="C109" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="D109" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="E109" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="F109" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="G109" s="29" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A110" s="28"/>
+      <c r="B110" s="28"/>
+      <c r="C110" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="D110" s="32"/>
+      <c r="E110" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="F110" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="G110" s="33" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A111" s="28"/>
+      <c r="B111" s="28"/>
+      <c r="C111" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="D111" s="26"/>
+      <c r="E111" s="28"/>
+      <c r="F111" s="28"/>
+      <c r="G111" s="33" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A112" s="28"/>
+      <c r="B112" s="28"/>
+      <c r="C112" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="D112" s="28"/>
+      <c r="E112" s="28"/>
+      <c r="F112" s="28"/>
+      <c r="G112" s="33" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A113" s="28"/>
+      <c r="B113" s="28"/>
+      <c r="C113" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="D113" s="28"/>
+      <c r="E113" s="28" t="s">
+        <v>112</v>
+      </c>
+      <c r="F113" s="28" t="s">
+        <v>112</v>
+      </c>
+      <c r="G113" s="33" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="C114" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="E114" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="F114" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="G114" s="33" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="C115" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="E115" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="F115" s="28" t="s">
+        <v>149</v>
+      </c>
+      <c r="G115" s="33" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="23" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A117" s="27" t="s">
+        <v>160</v>
+      </c>
+      <c r="B117" s="28" t="s">
+        <v>151</v>
+      </c>
+      <c r="C117" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="D117" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="E117" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="F117" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="G117" s="29" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" ht="150" x14ac:dyDescent="0.25">
+      <c r="C118" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="E118" s="28" t="s">
+        <v>153</v>
+      </c>
+      <c r="F118" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="G118" s="29" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" ht="150" x14ac:dyDescent="0.25">
+      <c r="C119" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="E119" s="28" t="s">
+        <v>155</v>
+      </c>
+      <c r="F119" s="28" t="s">
+        <v>155</v>
+      </c>
+      <c r="G119" s="29" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" ht="150" x14ac:dyDescent="0.25">
+      <c r="C120" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="E120" s="28" t="s">
+        <v>157</v>
+      </c>
+      <c r="F120" s="28" t="s">
+        <v>157</v>
+      </c>
+      <c r="G120" s="29" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="C121" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="E121" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="F121" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G121" s="29" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="23" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A123" s="27" t="s">
+        <v>161</v>
+      </c>
+      <c r="B123" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C123" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="D123" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="E123" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="F123" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="G123" s="29" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" s="28" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+      <c r="A124" s="32"/>
+      <c r="C124" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="E124" s="28" t="s">
+        <v>153</v>
+      </c>
+      <c r="F124" s="28" t="s">
+        <v>153</v>
+      </c>
+      <c r="G124" s="29" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" s="28" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A125" s="32"/>
+      <c r="C125" s="28" t="s">
+        <v>169</v>
+      </c>
+      <c r="E125" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="F125" s="28" t="s">
+        <v>170</v>
+      </c>
+      <c r="G125" s="29" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" s="28" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A126" s="32"/>
+      <c r="C126" s="28" t="s">
+        <v>171</v>
+      </c>
+      <c r="E126" s="28" t="s">
+        <v>172</v>
+      </c>
+      <c r="F126" s="28" t="s">
+        <v>172</v>
+      </c>
+      <c r="G126" s="29" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" s="28" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A127" s="32"/>
+      <c r="C127" s="28" t="s">
+        <v>173</v>
+      </c>
+      <c r="E127" s="28" t="s">
+        <v>174</v>
+      </c>
+      <c r="F127" s="28" t="s">
+        <v>174</v>
+      </c>
+      <c r="G127" s="29" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="C128" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="D128" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="E128" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="F128" s="28" t="s">
+        <v>165</v>
+      </c>
+      <c r="G128" s="29" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="C129" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="D129" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="E129" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="F129" s="28" t="s">
+        <v>168</v>
+      </c>
+      <c r="G129" s="29" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G130" s="29"/>
+    </row>
+    <row r="131" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="C131" s="5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A132" s="27" t="s">
+        <v>177</v>
+      </c>
+      <c r="B132" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="C132" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="D132" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="E132" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="F132" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="G132" s="29" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" ht="150" x14ac:dyDescent="0.25">
+      <c r="C133" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="D133" s="28"/>
+      <c r="E133" s="28" t="s">
+        <v>153</v>
+      </c>
+      <c r="F133" s="28" t="s">
+        <v>153</v>
+      </c>
+      <c r="G133" s="29" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" ht="180" x14ac:dyDescent="0.25">
+      <c r="C134" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="E134" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="F134" s="28" t="s">
+        <v>194</v>
+      </c>
+      <c r="G134" s="29" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="C135" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="E135" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="F135" s="28" t="s">
+        <v>181</v>
+      </c>
+      <c r="G135" s="29" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="C136" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="E136" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="F136" s="28" t="s">
+        <v>183</v>
+      </c>
+      <c r="G136" s="29" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="C137" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="E137" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="F137" s="28" t="s">
+        <v>185</v>
+      </c>
+      <c r="G137" s="29" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="C138" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="E138" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="F138" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="G138" s="29" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="C139" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="E139" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="F139" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="G139" s="29" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="C140" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="E140" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="F140" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="G140" s="34" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A141" s="27" t="s">
+        <v>195</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="7">
+    <mergeCell ref="A116:XFD116"/>
+    <mergeCell ref="A122:XFD122"/>
     <mergeCell ref="A2:XFD2"/>
     <mergeCell ref="A8:XFD8"/>
     <mergeCell ref="A47:XFD47"/>
     <mergeCell ref="A44:XFD44"/>
+    <mergeCell ref="A61:XFD61"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D29" r:id="rId1"/>
-    <hyperlink ref="D60" r:id="rId2"/>
-    <hyperlink ref="D11" r:id="rId3"/>
+    <hyperlink ref="D11" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId4"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 

--- a/test_cases.xlsx
+++ b/test_cases.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="209">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -1227,9 +1227,6 @@
     <t>Click on 'Email' icon</t>
   </si>
   <si>
-    <t>Gmail page is opened</t>
-  </si>
-  <si>
     <t>Opens up to a blank page</t>
   </si>
   <si>
@@ -1239,7 +1236,62 @@
     <t>Project details: Title of the project, Location, Posted date, Description, Apply button, Bookmark button, Share button are displayed. Related organizations and a few other projects are displayed on the right side.</t>
   </si>
   <si>
-    <t>C4SG_Projects_Apply_TC026</t>
+    <t>Click on 'Back to Search Results'</t>
+  </si>
+  <si>
+    <t>The projects results page is displayed</t>
+  </si>
+  <si>
+    <t>Default email app is opened</t>
+  </si>
+  <si>
+    <t>Click on Apply</t>
+  </si>
+  <si>
+    <t>Redirected to Login Page</t>
+  </si>
+  <si>
+    <t>C4SG_Projects_Apply_TC026_1</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Apply to any project from the project details page - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Login after clicking Apply, edit user profile for applying</t>
+    </r>
+  </si>
+  <si>
+    <t>Enter username and password. Click Login</t>
+  </si>
+  <si>
+    <t>Edit profile &amp; save</t>
+  </si>
+  <si>
+    <t>Redirected to 'Edit Profile' page if the profile is incomplete</t>
+  </si>
+  <si>
+    <t>Redirected to the Volunteer details page</t>
+  </si>
+  <si>
+    <t>Enter a comment in the Application Comment box</t>
+  </si>
+  <si>
+    <t>Click Submit</t>
+  </si>
+  <si>
+    <t>You have applied for the project' message is received and an email confirmation is received.</t>
+  </si>
+  <si>
+    <t>You have applied for the project' message is received and an email confirmation is received</t>
   </si>
 </sst>
 </file>
@@ -1412,15 +1464,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1448,6 +1491,15 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1736,10 +1788,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I141"/>
+  <dimension ref="A1:I151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A135" workbookViewId="0">
-      <selection activeCell="A141" sqref="A141"/>
+    <sheetView tabSelected="1" topLeftCell="A148" workbookViewId="0">
+      <selection activeCell="F151" sqref="F151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1785,8 +1837,8 @@
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="22" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
+    <row r="2" spans="1:9" s="34" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="34" t="s">
         <v>70</v>
       </c>
     </row>
@@ -1869,8 +1921,8 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:9" s="23" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="23" t="s">
+    <row r="8" spans="1:9" s="32" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="32" t="s">
         <v>71</v>
       </c>
     </row>
@@ -2346,8 +2398,8 @@
         <v>60</v>
       </c>
     </row>
-    <row r="44" spans="1:9" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="23" t="s">
+    <row r="44" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="32" t="s">
         <v>88</v>
       </c>
     </row>
@@ -2386,8 +2438,8 @@
         <v>60</v>
       </c>
     </row>
-    <row r="47" spans="1:9" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="23" t="s">
+    <row r="47" spans="1:9" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="32" t="s">
         <v>72</v>
       </c>
     </row>
@@ -2583,7 +2635,7 @@
       <c r="F59" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="G59" s="25" t="s">
+      <c r="G59" s="22" t="s">
         <v>60</v>
       </c>
     </row>
@@ -2591,7 +2643,7 @@
       <c r="C60" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="D60" s="31" t="s">
+      <c r="D60" s="28" t="s">
         <v>84</v>
       </c>
       <c r="E60" s="19" t="s">
@@ -2604,46 +2656,46 @@
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="23" t="s">
+    <row r="61" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="32" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A62" s="27" t="s">
+      <c r="A62" s="24" t="s">
         <v>124</v>
       </c>
       <c r="B62" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="C62" s="28" t="s">
+      <c r="C62" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="D62" s="28" t="s">
+      <c r="D62" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="E62" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="F62" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="G62" s="29" t="s">
+      <c r="E62" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="F62" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="G62" s="26" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="C63" s="32" t="s">
+      <c r="C63" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="D63" s="32"/>
-      <c r="E63" s="32" t="s">
+      <c r="D63" s="29"/>
+      <c r="E63" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="F63" s="32" t="s">
+      <c r="F63" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="G63" s="33" t="s">
+      <c r="G63" s="30" t="s">
         <v>60</v>
       </c>
     </row>
@@ -2651,10 +2703,10 @@
       <c r="C64" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D64" s="26" t="s">
+      <c r="D64" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="G64" s="33" t="s">
+      <c r="G64" s="30" t="s">
         <v>60</v>
       </c>
     </row>
@@ -2665,7 +2717,7 @@
       <c r="D65" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="G65" s="33" t="s">
+      <c r="G65" s="30" t="s">
         <v>60</v>
       </c>
     </row>
@@ -2676,230 +2728,230 @@
       <c r="E66" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="F66" s="28" t="s">
+      <c r="F66" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="G66" s="33" t="s">
+      <c r="G66" s="30" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A67" s="27" t="s">
+      <c r="A67" s="24" t="s">
         <v>104</v>
       </c>
       <c r="B67" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="C67" s="28" t="s">
+      <c r="C67" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="D67" s="28" t="s">
+      <c r="D67" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="E67" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="F67" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="G67" s="29" t="s">
+      <c r="E67" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="F67" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="G67" s="26" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="68" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="C68" s="32" t="s">
+      <c r="C68" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="D68" s="32"/>
-      <c r="E68" s="32" t="s">
+      <c r="D68" s="29"/>
+      <c r="E68" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="F68" s="32" t="s">
+      <c r="F68" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="G68" s="33" t="s">
+      <c r="G68" s="30" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C69" s="28" t="s">
+      <c r="C69" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="D69" s="26" t="s">
+      <c r="D69" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="E69" s="28"/>
-      <c r="F69" s="28"/>
-      <c r="G69" s="33" t="s">
+      <c r="E69" s="25"/>
+      <c r="F69" s="25"/>
+      <c r="G69" s="30" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C70" s="28" t="s">
+      <c r="C70" s="25" t="s">
         <v>100</v>
       </c>
-      <c r="D70" s="28" t="s">
+      <c r="D70" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="E70" s="28"/>
-      <c r="F70" s="28"/>
-      <c r="G70" s="33" t="s">
+      <c r="E70" s="25"/>
+      <c r="F70" s="25"/>
+      <c r="G70" s="30" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="71" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="C71" s="28" t="s">
+      <c r="C71" s="25" t="s">
         <v>101</v>
       </c>
-      <c r="D71" s="28"/>
-      <c r="E71" s="30" t="s">
+      <c r="D71" s="25"/>
+      <c r="E71" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="F71" s="30" t="s">
+      <c r="F71" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="G71" s="33" t="s">
+      <c r="G71" s="30" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="72" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A72" s="27" t="s">
+      <c r="A72" s="24" t="s">
         <v>107</v>
       </c>
       <c r="B72" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="C72" s="28" t="s">
+      <c r="C72" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="D72" s="28" t="s">
+      <c r="D72" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="E72" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="F72" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="G72" s="29" t="s">
+      <c r="E72" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="F72" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="G72" s="26" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="73" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="C73" s="32" t="s">
+      <c r="C73" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="D73" s="32"/>
-      <c r="E73" s="32" t="s">
+      <c r="D73" s="29"/>
+      <c r="E73" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="F73" s="32" t="s">
+      <c r="F73" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="G73" s="33" t="s">
+      <c r="G73" s="30" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C74" s="28" t="s">
+      <c r="C74" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="D74" s="26"/>
-      <c r="E74" s="28"/>
-      <c r="F74" s="28"/>
-      <c r="G74" s="33" t="s">
+      <c r="D74" s="23"/>
+      <c r="E74" s="25"/>
+      <c r="F74" s="25"/>
+      <c r="G74" s="30" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C75" s="28" t="s">
+      <c r="C75" s="25" t="s">
         <v>100</v>
       </c>
-      <c r="D75" s="28"/>
-      <c r="E75" s="28"/>
-      <c r="F75" s="28"/>
-      <c r="G75" s="33" t="s">
+      <c r="D75" s="25"/>
+      <c r="E75" s="25"/>
+      <c r="F75" s="25"/>
+      <c r="G75" s="30" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="76" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="C76" s="28" t="s">
+      <c r="C76" s="25" t="s">
         <v>101</v>
       </c>
-      <c r="D76" s="28"/>
-      <c r="E76" s="30" t="s">
+      <c r="D76" s="25"/>
+      <c r="E76" s="27" t="s">
         <v>109</v>
       </c>
-      <c r="F76" s="30" t="s">
+      <c r="F76" s="27" t="s">
         <v>109</v>
       </c>
-      <c r="G76" s="33" t="s">
+      <c r="G76" s="30" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="77" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A77" s="27" t="s">
+      <c r="A77" s="24" t="s">
         <v>110</v>
       </c>
-      <c r="B77" s="28" t="s">
+      <c r="B77" s="25" t="s">
         <v>111</v>
       </c>
-      <c r="C77" s="28" t="s">
+      <c r="C77" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="D77" s="28" t="s">
+      <c r="D77" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="E77" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="F77" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="G77" s="29" t="s">
+      <c r="E77" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="F77" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="G77" s="26" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="78" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A78" s="28"/>
-      <c r="B78" s="28"/>
-      <c r="C78" s="32" t="s">
+      <c r="A78" s="25"/>
+      <c r="B78" s="25"/>
+      <c r="C78" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="D78" s="32"/>
-      <c r="E78" s="32" t="s">
+      <c r="D78" s="29"/>
+      <c r="E78" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="F78" s="32" t="s">
+      <c r="F78" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="G78" s="33" t="s">
+      <c r="G78" s="30" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A79" s="28"/>
-      <c r="B79" s="28"/>
-      <c r="C79" s="28" t="s">
+      <c r="A79" s="25"/>
+      <c r="B79" s="25"/>
+      <c r="C79" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="D79" s="26"/>
-      <c r="E79" s="28"/>
-      <c r="F79" s="28"/>
-      <c r="G79" s="33" t="s">
+      <c r="D79" s="23"/>
+      <c r="E79" s="25"/>
+      <c r="F79" s="25"/>
+      <c r="G79" s="30" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A80" s="28"/>
-      <c r="B80" s="28"/>
-      <c r="C80" s="28" t="s">
+      <c r="A80" s="25"/>
+      <c r="B80" s="25"/>
+      <c r="C80" s="25" t="s">
         <v>100</v>
       </c>
-      <c r="D80" s="28"/>
-      <c r="E80" s="28"/>
-      <c r="F80" s="28"/>
-      <c r="G80" s="33" t="s">
+      <c r="D80" s="25"/>
+      <c r="E80" s="25"/>
+      <c r="F80" s="25"/>
+      <c r="G80" s="30" t="s">
         <v>60</v>
       </c>
     </row>
@@ -2910,343 +2962,343 @@
       <c r="E81" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="F81" s="28" t="s">
+      <c r="F81" s="25" t="s">
         <v>112</v>
       </c>
-      <c r="G81" s="33" t="s">
+      <c r="G81" s="30" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="82" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A82" s="27" t="s">
+      <c r="A82" s="24" t="s">
         <v>113</v>
       </c>
       <c r="B82" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="C82" s="28" t="s">
+      <c r="C82" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="D82" s="28" t="s">
+      <c r="D82" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="E82" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="F82" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="G82" s="29" t="s">
+      <c r="E82" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="F82" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="G82" s="26" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="83" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="C83" s="32" t="s">
+      <c r="C83" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="D83" s="32"/>
-      <c r="E83" s="32" t="s">
+      <c r="D83" s="29"/>
+      <c r="E83" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="F83" s="32" t="s">
+      <c r="F83" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="G83" s="33" t="s">
+      <c r="G83" s="30" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="84" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="C84" s="28" t="s">
+      <c r="C84" s="25" t="s">
         <v>117</v>
       </c>
-      <c r="D84" s="28"/>
-      <c r="E84" s="30" t="s">
+      <c r="D84" s="25"/>
+      <c r="E84" s="27" t="s">
         <v>115</v>
       </c>
-      <c r="F84" s="30" t="s">
+      <c r="F84" s="27" t="s">
         <v>116</v>
       </c>
-      <c r="G84" s="33" t="s">
+      <c r="G84" s="30" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="85" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A85" s="27" t="s">
+      <c r="A85" s="24" t="s">
         <v>118</v>
       </c>
-      <c r="B85" s="28" t="s">
+      <c r="B85" s="25" t="s">
         <v>119</v>
       </c>
-      <c r="C85" s="28" t="s">
+      <c r="C85" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="D85" s="28" t="s">
+      <c r="D85" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="E85" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="F85" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="G85" s="29" t="s">
+      <c r="E85" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="F85" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="G85" s="26" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="86" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A86" s="28"/>
-      <c r="B86" s="28"/>
-      <c r="C86" s="32" t="s">
+      <c r="A86" s="25"/>
+      <c r="B86" s="25"/>
+      <c r="C86" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="D86" s="32"/>
-      <c r="E86" s="32" t="s">
+      <c r="D86" s="29"/>
+      <c r="E86" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="F86" s="32" t="s">
+      <c r="F86" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="G86" s="33" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C87" s="32" t="s">
+      <c r="G86" s="30" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C87" s="29" t="s">
         <v>120</v>
       </c>
-      <c r="D87" s="26" t="s">
+      <c r="D87" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="E87" s="32"/>
-      <c r="F87" s="32"/>
-      <c r="G87" s="33" t="s">
+      <c r="E87" s="29"/>
+      <c r="F87" s="29"/>
+      <c r="G87" s="30" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="88" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A88" s="28"/>
-      <c r="B88" s="28"/>
-      <c r="C88" s="28" t="s">
+      <c r="A88" s="25"/>
+      <c r="B88" s="25"/>
+      <c r="C88" s="25" t="s">
         <v>121</v>
       </c>
-      <c r="D88" s="28"/>
-      <c r="E88" s="30" t="s">
+      <c r="D88" s="25"/>
+      <c r="E88" s="27" t="s">
         <v>122</v>
       </c>
-      <c r="F88" s="30" t="s">
+      <c r="F88" s="27" t="s">
         <v>123</v>
       </c>
-      <c r="G88" s="33" t="s">
+      <c r="G88" s="30" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="89" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A89" s="27" t="s">
+      <c r="A89" s="24" t="s">
         <v>126</v>
       </c>
-      <c r="B89" s="28" t="s">
+      <c r="B89" s="25" t="s">
         <v>127</v>
       </c>
-      <c r="C89" s="28" t="s">
+      <c r="C89" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="D89" s="28" t="s">
+      <c r="D89" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="E89" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="F89" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="G89" s="29" t="s">
+      <c r="E89" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="F89" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="G89" s="26" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="90" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="B90" s="28"/>
-      <c r="C90" s="32" t="s">
+      <c r="B90" s="25"/>
+      <c r="C90" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="D90" s="32"/>
-      <c r="E90" s="32" t="s">
+      <c r="D90" s="29"/>
+      <c r="E90" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="F90" s="32" t="s">
+      <c r="F90" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="G90" s="33" t="s">
+      <c r="G90" s="30" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B91" s="28"/>
-      <c r="C91" s="28" t="s">
+      <c r="B91" s="25"/>
+      <c r="C91" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="D91" s="26" t="s">
+      <c r="D91" s="23" t="s">
         <v>128</v>
       </c>
-      <c r="E91" s="28"/>
-      <c r="F91" s="28"/>
-      <c r="G91" s="33" t="s">
+      <c r="E91" s="25"/>
+      <c r="F91" s="25"/>
+      <c r="G91" s="30" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B92" s="28"/>
-      <c r="C92" s="28" t="s">
+      <c r="B92" s="25"/>
+      <c r="C92" s="25" t="s">
         <v>100</v>
       </c>
-      <c r="D92" s="28" t="s">
+      <c r="D92" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="E92" s="28"/>
-      <c r="F92" s="28"/>
-      <c r="G92" s="33" t="s">
+      <c r="E92" s="25"/>
+      <c r="F92" s="25"/>
+      <c r="G92" s="30" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="93" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="B93" s="28"/>
-      <c r="C93" s="28" t="s">
+      <c r="B93" s="25"/>
+      <c r="C93" s="25" t="s">
         <v>101</v>
       </c>
-      <c r="D93" s="28"/>
-      <c r="E93" s="28" t="s">
+      <c r="D93" s="25"/>
+      <c r="E93" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="F93" s="28" t="s">
+      <c r="F93" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="G93" s="33" t="s">
+      <c r="G93" s="30" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="94" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A94" s="27" t="s">
+      <c r="A94" s="24" t="s">
         <v>131</v>
       </c>
-      <c r="B94" s="28" t="s">
+      <c r="B94" s="25" t="s">
         <v>129</v>
       </c>
-      <c r="C94" s="28" t="s">
+      <c r="C94" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="D94" s="28" t="s">
+      <c r="D94" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="E94" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="F94" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="G94" s="29" t="s">
+      <c r="E94" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="F94" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="G94" s="26" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="95" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A95" s="28"/>
-      <c r="B95" s="28"/>
-      <c r="C95" s="32" t="s">
+      <c r="A95" s="25"/>
+      <c r="B95" s="25"/>
+      <c r="C95" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="D95" s="32"/>
-      <c r="E95" s="32" t="s">
+      <c r="D95" s="29"/>
+      <c r="E95" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="F95" s="32" t="s">
+      <c r="F95" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="G95" s="33" t="s">
+      <c r="G95" s="30" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A96" s="28"/>
-      <c r="B96" s="28"/>
-      <c r="C96" s="28" t="s">
+      <c r="A96" s="25"/>
+      <c r="B96" s="25"/>
+      <c r="C96" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="D96" s="26" t="s">
+      <c r="D96" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="E96" s="28"/>
-      <c r="F96" s="28"/>
-      <c r="G96" s="33" t="s">
+      <c r="E96" s="25"/>
+      <c r="F96" s="25"/>
+      <c r="G96" s="30" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A97" s="28"/>
-      <c r="B97" s="28"/>
-      <c r="C97" s="28" t="s">
+      <c r="A97" s="25"/>
+      <c r="B97" s="25"/>
+      <c r="C97" s="25" t="s">
         <v>100</v>
       </c>
-      <c r="D97" s="28" t="s">
+      <c r="D97" s="25" t="s">
         <v>130</v>
       </c>
-      <c r="E97" s="28"/>
-      <c r="F97" s="28"/>
-      <c r="G97" s="33" t="s">
+      <c r="E97" s="25"/>
+      <c r="F97" s="25"/>
+      <c r="G97" s="30" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="98" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A98" s="28"/>
-      <c r="B98" s="28"/>
-      <c r="C98" s="28" t="s">
+      <c r="A98" s="25"/>
+      <c r="B98" s="25"/>
+      <c r="C98" s="25" t="s">
         <v>101</v>
       </c>
-      <c r="D98" s="28"/>
-      <c r="E98" s="28" t="s">
+      <c r="D98" s="25"/>
+      <c r="E98" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="F98" s="28" t="s">
+      <c r="F98" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="G98" s="33" t="s">
+      <c r="G98" s="30" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="99" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A99" s="27" t="s">
+      <c r="A99" s="24" t="s">
         <v>132</v>
       </c>
-      <c r="B99" s="28" t="s">
+      <c r="B99" s="25" t="s">
         <v>133</v>
       </c>
-      <c r="C99" s="28" t="s">
+      <c r="C99" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="D99" s="28" t="s">
+      <c r="D99" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="E99" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="F99" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="G99" s="29" t="s">
+      <c r="E99" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="F99" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="G99" s="26" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="100" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A100" s="28"/>
-      <c r="B100" s="28"/>
-      <c r="C100" s="32" t="s">
+      <c r="A100" s="25"/>
+      <c r="B100" s="25"/>
+      <c r="C100" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="D100" s="32"/>
-      <c r="E100" s="32" t="s">
+      <c r="D100" s="29"/>
+      <c r="E100" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="F100" s="32" t="s">
+      <c r="F100" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="G100" s="33" t="s">
+      <c r="G100" s="30" t="s">
         <v>60</v>
       </c>
     </row>
@@ -3257,10 +3309,10 @@
       <c r="E101" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="F101" s="28" t="s">
+      <c r="F101" s="25" t="s">
         <v>135</v>
       </c>
-      <c r="G101" s="33" t="s">
+      <c r="G101" s="30" t="s">
         <v>60</v>
       </c>
     </row>
@@ -3268,7 +3320,7 @@
       <c r="C102" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="G102" s="33" t="s">
+      <c r="G102" s="30" t="s">
         <v>60</v>
       </c>
     </row>
@@ -3276,183 +3328,183 @@
       <c r="C103" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="E103" s="30" t="s">
+      <c r="E103" s="27" t="s">
         <v>137</v>
       </c>
-      <c r="F103" s="30" t="s">
+      <c r="F103" s="27" t="s">
         <v>137</v>
       </c>
-      <c r="G103" s="33" t="s">
+      <c r="G103" s="30" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="104" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A104" s="27" t="s">
+      <c r="A104" s="24" t="s">
         <v>143</v>
       </c>
-      <c r="B104" s="28" t="s">
+      <c r="B104" s="25" t="s">
         <v>138</v>
       </c>
-      <c r="C104" s="28" t="s">
+      <c r="C104" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="D104" s="28" t="s">
+      <c r="D104" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="E104" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="F104" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="G104" s="29" t="s">
+      <c r="E104" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="F104" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="G104" s="26" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="105" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A105" s="28"/>
-      <c r="B105" s="28"/>
-      <c r="C105" s="32" t="s">
+      <c r="A105" s="25"/>
+      <c r="B105" s="25"/>
+      <c r="C105" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="D105" s="32"/>
-      <c r="E105" s="32" t="s">
+      <c r="D105" s="29"/>
+      <c r="E105" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="F105" s="32" t="s">
+      <c r="F105" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="G105" s="33" t="s">
+      <c r="G105" s="30" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="106" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A106" s="28"/>
-      <c r="B106" s="28"/>
-      <c r="C106" s="28" t="s">
+      <c r="A106" s="25"/>
+      <c r="B106" s="25"/>
+      <c r="C106" s="25" t="s">
         <v>139</v>
       </c>
-      <c r="D106" s="28"/>
-      <c r="E106" s="28" t="s">
+      <c r="D106" s="25"/>
+      <c r="E106" s="25" t="s">
         <v>140</v>
       </c>
-      <c r="F106" s="28" t="s">
+      <c r="F106" s="25" t="s">
         <v>141</v>
       </c>
-      <c r="G106" s="33" t="s">
+      <c r="G106" s="30" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="107" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A107" s="28"/>
-      <c r="B107" s="28"/>
-      <c r="C107" s="28" t="s">
+      <c r="A107" s="25"/>
+      <c r="B107" s="25"/>
+      <c r="C107" s="25" t="s">
         <v>142</v>
       </c>
-      <c r="D107" s="28"/>
-      <c r="E107" s="28"/>
-      <c r="F107" s="28"/>
-      <c r="G107" s="33" t="s">
+      <c r="D107" s="25"/>
+      <c r="E107" s="25"/>
+      <c r="F107" s="25"/>
+      <c r="G107" s="30" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="108" spans="1:7" ht="120" x14ac:dyDescent="0.25">
-      <c r="A108" s="28"/>
-      <c r="B108" s="28"/>
-      <c r="C108" s="28" t="s">
+      <c r="A108" s="25"/>
+      <c r="B108" s="25"/>
+      <c r="C108" s="25" t="s">
         <v>101</v>
       </c>
-      <c r="D108" s="28"/>
-      <c r="E108" s="30" t="s">
+      <c r="D108" s="25"/>
+      <c r="E108" s="27" t="s">
         <v>137</v>
       </c>
-      <c r="F108" s="30" t="s">
+      <c r="F108" s="27" t="s">
         <v>137</v>
       </c>
-      <c r="G108" s="33" t="s">
+      <c r="G108" s="30" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="109" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A109" s="27" t="s">
+      <c r="A109" s="24" t="s">
         <v>144</v>
       </c>
-      <c r="B109" s="28" t="s">
+      <c r="B109" s="25" t="s">
         <v>145</v>
       </c>
-      <c r="C109" s="28" t="s">
+      <c r="C109" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="D109" s="28" t="s">
+      <c r="D109" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="E109" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="F109" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="G109" s="29" t="s">
+      <c r="E109" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="F109" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="G109" s="26" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="110" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A110" s="28"/>
-      <c r="B110" s="28"/>
-      <c r="C110" s="32" t="s">
+      <c r="A110" s="25"/>
+      <c r="B110" s="25"/>
+      <c r="C110" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="D110" s="32"/>
-      <c r="E110" s="32" t="s">
+      <c r="D110" s="29"/>
+      <c r="E110" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="F110" s="32" t="s">
+      <c r="F110" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="G110" s="33" t="s">
+      <c r="G110" s="30" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A111" s="28"/>
-      <c r="B111" s="28"/>
-      <c r="C111" s="28" t="s">
+      <c r="A111" s="25"/>
+      <c r="B111" s="25"/>
+      <c r="C111" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="D111" s="26"/>
-      <c r="E111" s="28"/>
-      <c r="F111" s="28"/>
-      <c r="G111" s="33" t="s">
+      <c r="D111" s="23"/>
+      <c r="E111" s="25"/>
+      <c r="F111" s="25"/>
+      <c r="G111" s="30" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A112" s="28"/>
-      <c r="B112" s="28"/>
-      <c r="C112" s="28" t="s">
+      <c r="A112" s="25"/>
+      <c r="B112" s="25"/>
+      <c r="C112" s="25" t="s">
         <v>100</v>
       </c>
-      <c r="D112" s="28"/>
-      <c r="E112" s="28"/>
-      <c r="F112" s="28"/>
-      <c r="G112" s="33" t="s">
+      <c r="D112" s="25"/>
+      <c r="E112" s="25"/>
+      <c r="F112" s="25"/>
+      <c r="G112" s="30" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="113" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A113" s="28"/>
-      <c r="B113" s="28"/>
-      <c r="C113" s="28" t="s">
+      <c r="A113" s="25"/>
+      <c r="B113" s="25"/>
+      <c r="C113" s="25" t="s">
         <v>101</v>
       </c>
-      <c r="D113" s="28"/>
-      <c r="E113" s="28" t="s">
+      <c r="D113" s="25"/>
+      <c r="E113" s="25" t="s">
         <v>112</v>
       </c>
-      <c r="F113" s="28" t="s">
+      <c r="F113" s="25" t="s">
         <v>112</v>
       </c>
-      <c r="G113" s="33" t="s">
+      <c r="G113" s="30" t="s">
         <v>60</v>
       </c>
     </row>
@@ -3460,13 +3512,13 @@
       <c r="C114" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="E114" s="28" t="s">
+      <c r="E114" s="25" t="s">
         <v>147</v>
       </c>
       <c r="F114" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="G114" s="33" t="s">
+      <c r="G114" s="30" t="s">
         <v>60</v>
       </c>
     </row>
@@ -3477,38 +3529,38 @@
       <c r="E115" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="F115" s="28" t="s">
+      <c r="F115" s="25" t="s">
         <v>149</v>
       </c>
-      <c r="G115" s="33" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="23" t="s">
+      <c r="G115" s="30" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="32" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="117" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A117" s="27" t="s">
+      <c r="A117" s="24" t="s">
         <v>160</v>
       </c>
-      <c r="B117" s="28" t="s">
+      <c r="B117" s="25" t="s">
         <v>151</v>
       </c>
-      <c r="C117" s="28" t="s">
+      <c r="C117" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="D117" s="28" t="s">
+      <c r="D117" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="E117" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="F117" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="G117" s="29" t="s">
+      <c r="E117" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="F117" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="G117" s="26" t="s">
         <v>60</v>
       </c>
     </row>
@@ -3516,13 +3568,13 @@
       <c r="C118" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="E118" s="28" t="s">
+      <c r="E118" s="25" t="s">
         <v>153</v>
       </c>
       <c r="F118" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="G118" s="29" t="s">
+      <c r="G118" s="26" t="s">
         <v>60</v>
       </c>
     </row>
@@ -3530,13 +3582,13 @@
       <c r="C119" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="E119" s="28" t="s">
+      <c r="E119" s="25" t="s">
         <v>155</v>
       </c>
-      <c r="F119" s="28" t="s">
+      <c r="F119" s="25" t="s">
         <v>155</v>
       </c>
-      <c r="G119" s="29" t="s">
+      <c r="G119" s="26" t="s">
         <v>60</v>
       </c>
     </row>
@@ -3544,13 +3596,13 @@
       <c r="C120" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="E120" s="28" t="s">
+      <c r="E120" s="25" t="s">
         <v>157</v>
       </c>
-      <c r="F120" s="28" t="s">
+      <c r="F120" s="25" t="s">
         <v>157</v>
       </c>
-      <c r="G120" s="29" t="s">
+      <c r="G120" s="26" t="s">
         <v>60</v>
       </c>
     </row>
@@ -3564,95 +3616,95 @@
       <c r="F121" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G121" s="29" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="23" t="s">
+      <c r="G121" s="26" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="32" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="123" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A123" s="27" t="s">
+      <c r="A123" s="24" t="s">
         <v>161</v>
       </c>
       <c r="B123" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="C123" s="28" t="s">
+      <c r="C123" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="D123" s="28" t="s">
+      <c r="D123" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="E123" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="F123" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="G123" s="29" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7" s="28" customFormat="1" ht="150" x14ac:dyDescent="0.25">
-      <c r="A124" s="32"/>
-      <c r="C124" s="28" t="s">
+      <c r="E123" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="F123" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="G123" s="26" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" s="25" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+      <c r="A124" s="29"/>
+      <c r="C124" s="25" t="s">
         <v>152</v>
       </c>
-      <c r="E124" s="28" t="s">
+      <c r="E124" s="25" t="s">
         <v>153</v>
       </c>
-      <c r="F124" s="28" t="s">
+      <c r="F124" s="25" t="s">
         <v>153</v>
       </c>
-      <c r="G124" s="29" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7" s="28" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A125" s="32"/>
-      <c r="C125" s="28" t="s">
+      <c r="G124" s="26" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" s="25" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A125" s="29"/>
+      <c r="C125" s="25" t="s">
         <v>169</v>
       </c>
-      <c r="E125" s="28" t="s">
+      <c r="E125" s="25" t="s">
         <v>170</v>
       </c>
-      <c r="F125" s="28" t="s">
+      <c r="F125" s="25" t="s">
         <v>170</v>
       </c>
-      <c r="G125" s="29" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7" s="28" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A126" s="32"/>
-      <c r="C126" s="28" t="s">
+      <c r="G125" s="26" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" s="25" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A126" s="29"/>
+      <c r="C126" s="25" t="s">
         <v>171</v>
       </c>
-      <c r="E126" s="28" t="s">
+      <c r="E126" s="25" t="s">
         <v>172</v>
       </c>
-      <c r="F126" s="28" t="s">
+      <c r="F126" s="25" t="s">
         <v>172</v>
       </c>
-      <c r="G126" s="29" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7" s="28" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A127" s="32"/>
-      <c r="C127" s="28" t="s">
+      <c r="G126" s="26" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" s="25" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A127" s="29"/>
+      <c r="C127" s="25" t="s">
         <v>173</v>
       </c>
-      <c r="E127" s="28" t="s">
+      <c r="E127" s="25" t="s">
         <v>174</v>
       </c>
-      <c r="F127" s="28" t="s">
+      <c r="F127" s="25" t="s">
         <v>174</v>
       </c>
-      <c r="G127" s="29" t="s">
+      <c r="G127" s="26" t="s">
         <v>60</v>
       </c>
     </row>
@@ -3666,10 +3718,10 @@
       <c r="E128" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="F128" s="28" t="s">
+      <c r="F128" s="25" t="s">
         <v>165</v>
       </c>
-      <c r="G128" s="29" t="s">
+      <c r="G128" s="26" t="s">
         <v>60</v>
       </c>
     </row>
@@ -3683,56 +3735,67 @@
       <c r="E129" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="F129" s="28" t="s">
+      <c r="F129" s="25" t="s">
         <v>168</v>
       </c>
-      <c r="G129" s="29" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G130" s="29"/>
-    </row>
-    <row r="131" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="C131" s="5" t="s">
+      <c r="G129" s="26" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="C130" s="5" t="s">
         <v>175</v>
       </c>
     </row>
+    <row r="131" spans="1:7" s="25" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="C131" s="25" t="s">
+        <v>194</v>
+      </c>
+      <c r="E131" s="25" t="s">
+        <v>195</v>
+      </c>
+      <c r="F131" s="25" t="s">
+        <v>195</v>
+      </c>
+      <c r="G131" s="26" t="s">
+        <v>60</v>
+      </c>
+    </row>
     <row r="132" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A132" s="27" t="s">
+      <c r="A132" s="24" t="s">
         <v>177</v>
       </c>
       <c r="B132" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="C132" s="28" t="s">
+      <c r="C132" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="D132" s="28" t="s">
+      <c r="D132" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="E132" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="F132" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="G132" s="29" t="s">
+      <c r="E132" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="F132" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="G132" s="26" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="133" spans="1:7" ht="150" x14ac:dyDescent="0.25">
-      <c r="C133" s="28" t="s">
+      <c r="C133" s="25" t="s">
         <v>152</v>
       </c>
-      <c r="D133" s="28"/>
-      <c r="E133" s="28" t="s">
+      <c r="D133" s="25"/>
+      <c r="E133" s="25" t="s">
         <v>153</v>
       </c>
-      <c r="F133" s="28" t="s">
+      <c r="F133" s="25" t="s">
         <v>153</v>
       </c>
-      <c r="G133" s="29" t="s">
+      <c r="G133" s="26" t="s">
         <v>60</v>
       </c>
     </row>
@@ -3741,12 +3804,12 @@
         <v>179</v>
       </c>
       <c r="E134" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="F134" s="25" t="s">
         <v>193</v>
       </c>
-      <c r="F134" s="28" t="s">
-        <v>194</v>
-      </c>
-      <c r="G134" s="29" t="s">
+      <c r="G134" s="26" t="s">
         <v>60</v>
       </c>
     </row>
@@ -3757,10 +3820,10 @@
       <c r="E135" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="F135" s="28" t="s">
+      <c r="F135" s="25" t="s">
         <v>181</v>
       </c>
-      <c r="G135" s="29" t="s">
+      <c r="G135" s="26" t="s">
         <v>60</v>
       </c>
     </row>
@@ -3771,10 +3834,10 @@
       <c r="E136" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="F136" s="28" t="s">
+      <c r="F136" s="25" t="s">
         <v>183</v>
       </c>
-      <c r="G136" s="29" t="s">
+      <c r="G136" s="26" t="s">
         <v>60</v>
       </c>
     </row>
@@ -3785,10 +3848,10 @@
       <c r="E137" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="F137" s="28" t="s">
+      <c r="F137" s="25" t="s">
         <v>185</v>
       </c>
-      <c r="G137" s="29" t="s">
+      <c r="G137" s="26" t="s">
         <v>60</v>
       </c>
     </row>
@@ -3802,7 +3865,7 @@
       <c r="F138" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="G138" s="29" t="s">
+      <c r="G138" s="26" t="s">
         <v>60</v>
       </c>
     </row>
@@ -3816,7 +3879,7 @@
       <c r="F139" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="G139" s="29" t="s">
+      <c r="G139" s="26" t="s">
         <v>60</v>
       </c>
     </row>
@@ -3825,18 +3888,175 @@
         <v>190</v>
       </c>
       <c r="E140" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="F140" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="F140" s="5" t="s">
+      <c r="G140" s="31" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A141" s="24" t="s">
+        <v>199</v>
+      </c>
+      <c r="B141" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="C141" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="D141" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="E141" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="F141" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="G141" s="26" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" ht="150" x14ac:dyDescent="0.25">
+      <c r="C142" s="25" t="s">
+        <v>152</v>
+      </c>
+      <c r="D142" s="25"/>
+      <c r="E142" s="25" t="s">
+        <v>153</v>
+      </c>
+      <c r="F142" s="25" t="s">
+        <v>153</v>
+      </c>
+      <c r="G142" s="26" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" ht="180" x14ac:dyDescent="0.25">
+      <c r="C143" s="25" t="s">
+        <v>179</v>
+      </c>
+      <c r="D143" s="25"/>
+      <c r="E143" s="25" t="s">
         <v>192</v>
       </c>
-      <c r="G140" s="34" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A141" s="27" t="s">
-        <v>195</v>
+      <c r="F143" s="25" t="s">
+        <v>193</v>
+      </c>
+      <c r="G143" s="26" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="C144" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="E144" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="F144" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="G144" s="26" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="145" spans="3:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="C145" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="E145" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="F145" s="25" t="s">
+        <v>203</v>
+      </c>
+      <c r="G145" s="26" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="146" spans="3:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="C146" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="E146" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="F146" s="25" t="s">
+        <v>204</v>
+      </c>
+      <c r="G146" s="26" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="147" spans="3:7" ht="150" x14ac:dyDescent="0.25">
+      <c r="C147" s="25" t="s">
+        <v>152</v>
+      </c>
+      <c r="D147" s="25"/>
+      <c r="E147" s="25" t="s">
+        <v>153</v>
+      </c>
+      <c r="F147" s="25" t="s">
+        <v>153</v>
+      </c>
+      <c r="G147" s="26" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="148" spans="3:7" ht="180" x14ac:dyDescent="0.25">
+      <c r="C148" s="25" t="s">
+        <v>179</v>
+      </c>
+      <c r="D148" s="25"/>
+      <c r="E148" s="25" t="s">
+        <v>192</v>
+      </c>
+      <c r="F148" s="25" t="s">
+        <v>193</v>
+      </c>
+      <c r="G148" s="26" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="149" spans="3:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="C149" s="25" t="s">
+        <v>197</v>
+      </c>
+      <c r="D149" s="25"/>
+      <c r="E149" s="25" t="s">
+        <v>198</v>
+      </c>
+      <c r="F149" s="25" t="s">
+        <v>198</v>
+      </c>
+      <c r="G149" s="26" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="150" spans="3:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="C150" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="G150" s="26" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="151" spans="3:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="C151" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="E151" s="27" t="s">
+        <v>207</v>
+      </c>
+      <c r="F151" s="27" t="s">
+        <v>208</v>
+      </c>
+      <c r="G151" s="26" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
